--- a/biology/Médecine/Télédialyse/Télédialyse.xlsx
+++ b/biology/Médecine/Télédialyse/Télédialyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9dialyse</t>
+          <t>Télédialyse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La télédialyse consiste à la mise en œuvre de systèmes communicants entre un centre « référent » où se trouve l’équipe de médecins néphrologues et une unité satellite où sont localisés les patients et l’équipe paramédicale.
 Cette modalité de prise en charge des patients atteints d'insuffisance rénale chronique est née à la fin des années 1990 et a fait l'objet d'expérimentation dans différents pays notamment au Canada et en France (CH de Saint-Brieuc). 
